--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>优先级</t>
   </si>
@@ -55,7 +55,7 @@
     <t>关卡与配置读取</t>
   </si>
   <si>
-    <t>关卡胜利条件搭建\关卡限时搭建</t>
+    <t>初版关卡胜利条件搭建\关卡限时搭建</t>
   </si>
   <si>
     <t>连续关卡实现</t>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>软著和上线准备文件预备</t>
+  </si>
+  <si>
+    <t>小球出生表现</t>
+  </si>
+  <si>
+    <t>小球掉落，time-</t>
+  </si>
+  <si>
+    <t>每关完成任务：消灭boss、击杀多少砖块、获得多少加成道具、完成几次能量触发、消灭指定砖块</t>
+  </si>
+  <si>
+    <t>过渡关卡界面设计和实现</t>
+  </si>
+  <si>
+    <t>结束界面设计和实现</t>
+  </si>
+  <si>
+    <t>开始游戏界面设计和实现</t>
+  </si>
+  <si>
+    <t>开局随机奖励（像灵能100%猜拳样式）</t>
+  </si>
+  <si>
+    <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
   </si>
   <si>
     <t>工具</t>
@@ -126,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +178,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,65 +208,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,23 +224,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,21 +307,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -311,19 +335,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,157 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,32 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,20 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,16 +596,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1132,244 +1156,299 @@
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="4">
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="4">
+    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" ht="12" customHeight="1" spans="1:3">
-      <c r="A10">
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="12" customHeight="1"/>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="44" spans="1:3">
+      <c r="A44">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B44" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C44" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1398,23 +1477,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>优先级</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>制作关卡随机方式</t>
+  </si>
+  <si>
+    <t>制作砖块强度</t>
   </si>
   <si>
     <t>制作加成道具</t>
@@ -151,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,6 +174,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,31 +210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,8 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +252,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,12 +283,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -264,51 +305,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,7 +332,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,175 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,20 +522,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +559,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,15 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +598,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,142 +635,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1124,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1253,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1267,7 +1263,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="12" customHeight="1"/>
+    <row r="10" s="3" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>9</v>
@@ -1276,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1287,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1298,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1309,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1320,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1331,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1342,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1353,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1361,10 +1370,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1372,10 +1381,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1383,10 +1392,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1397,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1405,50 +1414,50 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1477,23 +1486,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>优先级</t>
   </si>
@@ -67,13 +67,22 @@
     <t>制作砖块强度</t>
   </si>
   <si>
-    <t>制作加成道具</t>
+    <t>制作加成道具-加时</t>
   </si>
   <si>
     <t>制作能量条和特殊球</t>
   </si>
   <si>
-    <t>制作小BOSS关卡+小boss技能</t>
+    <t>初版UI设计</t>
+  </si>
+  <si>
+    <t>初版UI布局调整</t>
+  </si>
+  <si>
+    <t>制作小BOSS关卡</t>
+  </si>
+  <si>
+    <t>制作小BOSS技能</t>
   </si>
   <si>
     <t>制作金币系统</t>
@@ -85,9 +94,6 @@
     <t>制作商店</t>
   </si>
   <si>
-    <t>制作小BOSS关卡</t>
-  </si>
-  <si>
     <t>制作大BOSS关卡</t>
   </si>
   <si>
@@ -131,6 +137,15 @@
   </si>
   <si>
     <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
+  </si>
+  <si>
+    <t>砖块生成改为用nodepool对象池生成</t>
+  </si>
+  <si>
+    <t>关卡显示</t>
+  </si>
+  <si>
+    <t>最小角度</t>
   </si>
   <si>
     <t>工具</t>
@@ -153,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,6 +186,20 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,22 +218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -249,6 +265,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -257,53 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -332,6 +347,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,7 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,55 +419,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,97 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +544,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,6 +574,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -555,45 +594,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,16 +617,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,16 +650,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,115 +668,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1277,26 +1292,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
+    <row r="11" s="3" customFormat="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1307,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1318,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1329,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1340,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1351,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1362,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1370,10 +1406,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1381,10 +1417,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1392,10 +1428,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1406,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1414,50 +1450,65 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1486,23 +1537,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>优先级</t>
   </si>
@@ -76,25 +76,28 @@
     <t>初版UI设计</t>
   </si>
   <si>
+    <t>制作小BOSS关卡</t>
+  </si>
+  <si>
+    <t>制作金币系统</t>
+  </si>
+  <si>
     <t>初版UI布局调整</t>
   </si>
   <si>
-    <t>制作小BOSS关卡</t>
+    <t>任务：击杀boss、击杀多少砖块</t>
   </si>
   <si>
     <t>制作小BOSS技能</t>
   </si>
   <si>
-    <t>制作金币系统</t>
-  </si>
-  <si>
     <t>制作积分系统</t>
   </si>
   <si>
     <t>制作商店</t>
   </si>
   <si>
-    <t>制作大BOSS关卡</t>
+    <t>制作大BOSS技能</t>
   </si>
   <si>
     <t>策划</t>
@@ -146,6 +149,36 @@
   </si>
   <si>
     <t>最小角度</t>
+  </si>
+  <si>
+    <t>制作后卫砖块特性</t>
+  </si>
+  <si>
+    <t>制作前锋砖块特性</t>
+  </si>
+  <si>
+    <t>制作小boss支持砖块特性</t>
+  </si>
+  <si>
+    <t>制作大BOSS支持砖块特性</t>
+  </si>
+  <si>
+    <t>补充小boss技能</t>
+  </si>
+  <si>
+    <t>补充大boss技能</t>
+  </si>
+  <si>
+    <t>补充道具</t>
+  </si>
+  <si>
+    <t>补充商店</t>
+  </si>
+  <si>
+    <t>补充能量效果</t>
+  </si>
+  <si>
+    <t>非boss中间布局</t>
   </si>
   <si>
     <t>工具</t>
@@ -190,14 +223,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +259,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -227,7 +314,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,91 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,181 +380,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +568,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +622,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,75 +665,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1325,14 +1358,24 @@
         <v>18</v>
       </c>
     </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1343,18 +1386,15 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1365,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1376,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1387,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1398,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1406,10 +1446,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1417,10 +1457,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1428,10 +1468,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1442,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1450,65 +1490,115 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1537,23 +1627,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>优先级</t>
   </si>
@@ -82,6 +82,9 @@
     <t>制作金币系统</t>
   </si>
   <si>
+    <t>制作商店</t>
+  </si>
+  <si>
     <t>初版UI布局调整</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>制作积分系统</t>
   </si>
   <si>
-    <t>制作商店</t>
-  </si>
-  <si>
     <t>制作大BOSS技能</t>
   </si>
   <si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>非boss中间布局</t>
+  </si>
+  <si>
+    <t>碰撞积攒能量</t>
+  </si>
+  <si>
+    <t>板子做了</t>
   </si>
   <si>
     <t>工具</t>
@@ -201,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,13 +230,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +258,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -267,14 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -283,13 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -299,61 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,13 +386,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,31 +494,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,109 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,17 +598,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,13 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,31 +671,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1358,24 +1364,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
+    <row r="14" spans="3:3">
+      <c r="C14" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1386,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1405,18 +1416,15 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1427,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1599,6 +1607,16 @@
     <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1627,23 +1645,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>优先级</t>
   </si>
@@ -85,6 +85,9 @@
     <t>制作商店</t>
   </si>
   <si>
+    <t>每关完成任务：消灭boss、击杀多少砖块</t>
+  </si>
+  <si>
     <t>初版UI布局调整</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>小球掉落，time-</t>
   </si>
   <si>
-    <t>每关完成任务：消灭boss、击杀多少砖块、获得多少加成道具、完成几次能量触发、消灭指定砖块</t>
-  </si>
-  <si>
     <t>过渡关卡界面设计和实现</t>
   </si>
   <si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>板子做了</t>
+  </si>
+  <si>
+    <t>商店折扣系统</t>
   </si>
   <si>
     <t>工具</t>
@@ -207,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -230,6 +233,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +300,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,14 +331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +353,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -325,45 +367,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -386,13 +389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,139 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +574,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,17 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,25 +674,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1374,19 +1377,24 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1397,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1416,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1435,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1446,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1454,10 +1462,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1465,10 +1473,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1476,10 +1484,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1490,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1498,24 +1506,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1617,6 +1620,11 @@
     <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1645,23 +1653,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>优先级</t>
   </si>
@@ -73,6 +73,9 @@
     <t>制作能量条和特殊球</t>
   </si>
   <si>
+    <t>美术</t>
+  </si>
+  <si>
     <t>初版UI设计</t>
   </si>
   <si>
@@ -88,10 +91,22 @@
     <t>每关完成任务：消灭boss、击杀多少砖块</t>
   </si>
   <si>
-    <t>初版UI布局调整</t>
-  </si>
-  <si>
-    <t>任务：击杀boss、击杀多少砖块</t>
+    <t>UI主界面设计·真</t>
+  </si>
+  <si>
+    <t>暂停界面</t>
+  </si>
+  <si>
+    <t>主界面UI接入+联调</t>
+  </si>
+  <si>
+    <t>最小角度</t>
+  </si>
+  <si>
+    <t>小球出生表现</t>
+  </si>
+  <si>
+    <t>小球掉落，time-</t>
   </si>
   <si>
     <t>制作小BOSS技能</t>
@@ -103,6 +118,90 @@
     <t>制作大BOSS技能</t>
   </si>
   <si>
+    <t>过渡关卡界面设计和实现</t>
+  </si>
+  <si>
+    <t>结束界面设计和实现</t>
+  </si>
+  <si>
+    <t>开始游戏界面设计和实现</t>
+  </si>
+  <si>
+    <t>开局随机奖励（像灵能100%猜拳样式）</t>
+  </si>
+  <si>
+    <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
+  </si>
+  <si>
+    <t>砖块生成改为用nodepool对象池生成</t>
+  </si>
+  <si>
+    <t>制作后卫砖块特性</t>
+  </si>
+  <si>
+    <t>制作前锋砖块特性</t>
+  </si>
+  <si>
+    <t>制作小boss支持砖块特性</t>
+  </si>
+  <si>
+    <t>制作大BOSS支持砖块特性</t>
+  </si>
+  <si>
+    <t>补充小boss技能</t>
+  </si>
+  <si>
+    <t>补充大boss技能</t>
+  </si>
+  <si>
+    <t>补充道具</t>
+  </si>
+  <si>
+    <t>补充商店</t>
+  </si>
+  <si>
+    <t>补充能量效果</t>
+  </si>
+  <si>
+    <t>非boss中间布局</t>
+  </si>
+  <si>
+    <t>碰撞积攒能量</t>
+  </si>
+  <si>
+    <t>paddle板子做了</t>
+  </si>
+  <si>
+    <t>商店折扣系统</t>
+  </si>
+  <si>
+    <t>商店UI设计·真</t>
+  </si>
+  <si>
+    <t>开始游戏UI设计·真</t>
+  </si>
+  <si>
+    <t>排行榜UI设计·真</t>
+  </si>
+  <si>
+    <t>球碰到墙壁播换表情动画</t>
+  </si>
+  <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>字体统合</t>
+  </si>
+  <si>
+    <t>倒计时效果</t>
+  </si>
+  <si>
     <t>策划</t>
   </si>
   <si>
@@ -119,75 +218,6 @@
   </si>
   <si>
     <t>软著和上线准备文件预备</t>
-  </si>
-  <si>
-    <t>小球出生表现</t>
-  </si>
-  <si>
-    <t>小球掉落，time-</t>
-  </si>
-  <si>
-    <t>过渡关卡界面设计和实现</t>
-  </si>
-  <si>
-    <t>结束界面设计和实现</t>
-  </si>
-  <si>
-    <t>开始游戏界面设计和实现</t>
-  </si>
-  <si>
-    <t>开局随机奖励（像灵能100%猜拳样式）</t>
-  </si>
-  <si>
-    <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
-  </si>
-  <si>
-    <t>砖块生成改为用nodepool对象池生成</t>
-  </si>
-  <si>
-    <t>关卡显示</t>
-  </si>
-  <si>
-    <t>最小角度</t>
-  </si>
-  <si>
-    <t>制作后卫砖块特性</t>
-  </si>
-  <si>
-    <t>制作前锋砖块特性</t>
-  </si>
-  <si>
-    <t>制作小boss支持砖块特性</t>
-  </si>
-  <si>
-    <t>制作大BOSS支持砖块特性</t>
-  </si>
-  <si>
-    <t>补充小boss技能</t>
-  </si>
-  <si>
-    <t>补充大boss技能</t>
-  </si>
-  <si>
-    <t>补充道具</t>
-  </si>
-  <si>
-    <t>补充商店</t>
-  </si>
-  <si>
-    <t>补充能量效果</t>
-  </si>
-  <si>
-    <t>非boss中间布局</t>
-  </si>
-  <si>
-    <t>碰撞积攒能量</t>
-  </si>
-  <si>
-    <t>板子做了</t>
-  </si>
-  <si>
-    <t>商店折扣系统</t>
   </si>
   <si>
     <t>工具</t>
@@ -238,6 +268,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -247,128 +392,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,181 +419,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,41 +613,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,16 +664,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,25 +710,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,141 +728,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1362,39 +1399,113 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3" t="s">
+    <row r="13" s="4" customFormat="1" spans="1:5">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1405,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1424,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1443,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1454,177 +1565,202 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1653,23 +1789,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -262,7 +262,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +291,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,22 +312,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,47 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,30 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -425,181 +425,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +610,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -637,56 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,6 +684,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1508,15 +1508,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>优先级</t>
   </si>
@@ -109,13 +109,10 @@
     <t>小球掉落，time-</t>
   </si>
   <si>
-    <t>制作小BOSS技能</t>
+    <t>制作小/大BOSS技能</t>
   </si>
   <si>
     <t>制作积分系统</t>
-  </si>
-  <si>
-    <t>制作大BOSS技能</t>
   </si>
   <si>
     <t>过渡关卡界面设计和实现</t>
@@ -240,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -262,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +272,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +304,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,35 +350,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,51 +388,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -425,181 +422,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,17 +610,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +650,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,26 +701,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -716,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1548,166 +1545,160 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1715,10 +1706,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
         <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1726,10 +1717,10 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1737,10 +1728,10 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1751,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1759,10 +1750,10 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1791,23 +1782,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>优先级</t>
   </si>
@@ -109,10 +109,19 @@
     <t>小球掉落，time-</t>
   </si>
   <si>
-    <t>制作小/大BOSS技能</t>
-  </si>
-  <si>
-    <t>制作积分系统</t>
+    <t>制作小/大BOSS技能功能，并完成功能1</t>
+  </si>
+  <si>
+    <t>boss释放技能帧动画</t>
+  </si>
+  <si>
+    <t>砖块comb设计 + UI</t>
+  </si>
+  <si>
+    <t>制作积分系统（关卡积分、砖块积分、砖块comb积分、拾取道具积分、时间转积分）</t>
+  </si>
+  <si>
+    <t>小关卡完成，50%时间转化为积分+金币奖励，剩下50%时间继承</t>
   </si>
   <si>
     <t>过渡关卡界面设计和实现</t>
@@ -197,6 +206,15 @@
   </si>
   <si>
     <t>倒计时效果</t>
+  </si>
+  <si>
+    <t>制作BOSS技能2</t>
+  </si>
+  <si>
+    <t>boss加速效果设计</t>
+  </si>
+  <si>
+    <t>商店刷新功能</t>
   </si>
   <si>
     <t>策划</t>
@@ -238,9 +256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -272,9 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,36 +310,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,9 +329,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,13 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -373,23 +406,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,12 +440,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,168 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,11 +630,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,25 +670,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -669,21 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,11 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1505,9 +1523,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1526,15 +1564,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1563,197 +1598,212 @@
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
         <v>17</v>
       </c>
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
         <v>18</v>
       </c>
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
         <v>19</v>
       </c>
-      <c r="B85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
         <v>21</v>
       </c>
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>65</v>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1782,23 +1832,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>优先级</t>
   </si>
@@ -118,10 +118,32 @@
     <t>砖块comb设计 + UI</t>
   </si>
   <si>
-    <t>制作积分系统（关卡积分、砖块积分、砖块comb积分、拾取道具积分、时间转积分）</t>
-  </si>
-  <si>
-    <t>小关卡完成，50%时间转化为积分+金币奖励，剩下50%时间继承</t>
+    <r>
+      <t>制作积分系统（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关卡积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、砖块积分+砖块comb积分、拾取道具积分、时间转积分）</t>
+    </r>
+  </si>
+  <si>
+    <t>金币系统 + 小关卡完成，50%时间转化为金币奖励</t>
   </si>
   <si>
     <t>过渡关卡界面设计和实现</t>
@@ -215,6 +237,9 @@
   </si>
   <si>
     <t>商店刷新功能</t>
+  </si>
+  <si>
+    <t>砖块死亡加分效果UI</t>
   </si>
   <si>
     <t>策划</t>
@@ -255,12 +280,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,14 +302,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,107 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,6 +437,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -440,12 +472,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,163 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,35 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +691,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,17 +719,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,142 +775,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1229,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1538,14 +1571,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1596,6 +1624,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
         <v>35</v>
@@ -1751,15 +1784,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="96" spans="1:3">
       <c r="A96">
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1767,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1778,10 +1816,10 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1792,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1800,10 +1838,10 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1832,23 +1870,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>优先级</t>
   </si>
@@ -118,29 +118,7 @@
     <t>砖块comb设计 + UI</t>
   </si>
   <si>
-    <r>
-      <t>制作积分系统（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关卡积分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、砖块积分+砖块comb积分、拾取道具积分、时间转积分）</t>
-    </r>
+    <t>制作积分系统（关卡积分、砖块积分+砖块comb积分、拾取道具积分、时间转积分）</t>
   </si>
   <si>
     <t>金币系统 + 小关卡完成，50%时间转化为金币奖励</t>
@@ -149,13 +127,85 @@
     <t>过渡关卡界面设计和实现</t>
   </si>
   <si>
-    <t>结束界面设计和实现</t>
-  </si>
-  <si>
-    <t>开始游戏界面设计和实现</t>
-  </si>
-  <si>
-    <t>开局随机奖励（像灵能100%猜拳样式）</t>
+    <t>时间转积分和金币修改→关卡配置+时间功能、、、boss奖金币根据击杀砖块数量确定</t>
+  </si>
+  <si>
+    <t>制作砖块类型(1普通2椭圆3三角4倒三角5五角星6六边形99单个随机)</t>
+  </si>
+  <si>
+    <t>商店UI设计·真</t>
+  </si>
+  <si>
+    <t>商店UI拼接，剩下细节完成</t>
+  </si>
+  <si>
+    <t>商品满级或卖完处理</t>
+  </si>
+  <si>
+    <t>默认一个特价商品（且必须是未升级的，需要容错处理）</t>
+  </si>
+  <si>
+    <t>商店手动刷新</t>
+  </si>
+  <si>
+    <t>初版商店图标设计·真（1保底2能量延时）110x110</t>
+  </si>
+  <si>
+    <t>补充道具：平台延长、小球</t>
+  </si>
+  <si>
+    <t>补充商店：初始能量、平台延长长度、平台延长时间、小球大小</t>
+  </si>
+  <si>
+    <t>安全线UI效果</t>
+  </si>
+  <si>
+    <t>每关开始的UI提示</t>
+  </si>
+  <si>
+    <t>倒计时效果</t>
+  </si>
+  <si>
+    <t>制作BOSS技能2</t>
+  </si>
+  <si>
+    <t>减速bug改为重新发球</t>
+  </si>
+  <si>
+    <t>商店刷新功能-增加效果</t>
+  </si>
+  <si>
+    <t>补充道具</t>
+  </si>
+  <si>
+    <t>能量条UI迭代设计</t>
+  </si>
+  <si>
+    <t>三个技能效果的图标+UI效果</t>
+  </si>
+  <si>
+    <t>能量效果--巨大球</t>
+  </si>
+  <si>
+    <t>补充能量效果--闪电球</t>
+  </si>
+  <si>
+    <t>补充能量效果--爆炸球</t>
+  </si>
+  <si>
+    <t>能量条UI功能连入</t>
+  </si>
+  <si>
+    <t>能量条在爆发时显示效果</t>
+  </si>
+  <si>
+    <t>制作BOSS技能4</t>
+  </si>
+  <si>
+    <t>boss加速效果设计</t>
+  </si>
+  <si>
+    <t>拖尾效果设计和加速拖尾效果设计</t>
   </si>
   <si>
     <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
@@ -164,100 +214,103 @@
     <t>砖块生成改为用nodepool对象池生成</t>
   </si>
   <si>
-    <t>制作后卫砖块特性</t>
-  </si>
-  <si>
-    <t>制作前锋砖块特性</t>
-  </si>
-  <si>
-    <t>制作小boss支持砖块特性</t>
-  </si>
-  <si>
-    <t>制作大BOSS支持砖块特性</t>
-  </si>
-  <si>
     <t>补充小boss技能</t>
   </si>
   <si>
     <t>补充大boss技能</t>
   </si>
   <si>
-    <t>补充道具</t>
-  </si>
-  <si>
-    <t>补充商店</t>
-  </si>
-  <si>
-    <t>补充能量效果</t>
-  </si>
-  <si>
-    <t>非boss中间布局</t>
-  </si>
-  <si>
-    <t>碰撞积攒能量</t>
-  </si>
-  <si>
-    <t>paddle板子做了</t>
-  </si>
-  <si>
-    <t>商店折扣系统</t>
-  </si>
-  <si>
-    <t>商店UI设计·真</t>
-  </si>
-  <si>
     <t>开始游戏UI设计·真</t>
   </si>
   <si>
+    <t>球碰到墙壁播换表情动画</t>
+  </si>
+  <si>
+    <t>砖块死亡加分效果UI</t>
+  </si>
+  <si>
+    <t>游戏总局胜利的界面设计</t>
+  </si>
+  <si>
+    <t>增加前锋砖块布局类型</t>
+  </si>
+  <si>
+    <t>增加后卫砖块布局类型</t>
+  </si>
+  <si>
+    <t>上调托盘的位置</t>
+  </si>
+  <si>
+    <t>球→关卡过渡的动画效果</t>
+  </si>
+  <si>
+    <t>关卡过渡→商店→下一关的动画效果</t>
+  </si>
+  <si>
+    <t>砖块消失效果</t>
+  </si>
+  <si>
+    <t>板子弹的时候加动画效果</t>
+  </si>
+  <si>
+    <t>道具掉落效果</t>
+  </si>
+  <si>
+    <t>随机奖励块：降落伞效果，匀速下降</t>
+  </si>
+  <si>
+    <t>商店折扣</t>
+  </si>
+  <si>
+    <t>增加boss辅助布局类型</t>
+  </si>
+  <si>
+    <t>增加非boss区域布局类型</t>
+  </si>
+  <si>
+    <t>关卡完成UI迭代设计</t>
+  </si>
+  <si>
+    <t>未完成的道具转化为奖励（时间）</t>
+  </si>
+  <si>
     <t>排行榜UI设计·真</t>
   </si>
   <si>
-    <t>球碰到墙壁播换表情动画</t>
-  </si>
-  <si>
-    <t>道具图标</t>
+    <t>排行榜方式调查+根据已有数据设计</t>
+  </si>
+  <si>
+    <t>排行榜配置</t>
+  </si>
+  <si>
+    <t>关卡结束后显示最高得分</t>
+  </si>
+  <si>
+    <t>小广告配置方式调查</t>
+  </si>
+  <si>
+    <t>广告激励位置设计</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>暂停界面加音效控制</t>
   </si>
   <si>
     <t>背景音乐</t>
   </si>
   <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>字体统合</t>
-  </si>
-  <si>
-    <t>倒计时效果</t>
-  </si>
-  <si>
-    <t>制作BOSS技能2</t>
-  </si>
-  <si>
-    <t>boss加速效果设计</t>
-  </si>
-  <si>
-    <t>商店刷新功能</t>
-  </si>
-  <si>
-    <t>砖块死亡加分效果UI</t>
-  </si>
-  <si>
-    <t>策划</t>
+    <t>微信工具包体压缩等</t>
   </si>
   <si>
     <t>数值设计：球+砖强度+金币+积分+道具+关卡时间+能量条</t>
   </si>
   <si>
-    <t>小广告配置方式调查</t>
-  </si>
-  <si>
-    <t>排行榜方式调查+根据已有数据设计</t>
-  </si>
-  <si>
-    <t>排行榜配置</t>
-  </si>
-  <si>
     <t>软著和上线准备文件预备</t>
+  </si>
+  <si>
+    <t>宣发找途径-比如微信创新游戏</t>
   </si>
   <si>
     <t>工具</t>
@@ -280,12 +333,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +356,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,10 +404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,9 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,39 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,15 +460,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,16 +469,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -472,25 +518,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,151 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,8 +709,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,26 +750,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,23 +772,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,16 +792,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,10 +1306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1531,317 +1577,432 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:5">
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="3:3">
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="3:3">
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>34</v>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>35</v>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>17</v>
-      </c>
-      <c r="B96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>18</v>
-      </c>
-      <c r="B97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>19</v>
-      </c>
-      <c r="B98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>20</v>
-      </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>21</v>
-      </c>
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1870,23 +2031,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
   <si>
     <t>优先级</t>
   </si>
@@ -199,13 +199,49 @@
     <t>能量条在爆发时显示效果</t>
   </si>
   <si>
+    <t>拖尾效果设计（普通，闪电，爆炸，大力）</t>
+  </si>
+  <si>
     <t>制作BOSS技能4</t>
   </si>
   <si>
-    <t>boss加速效果设计</t>
-  </si>
-  <si>
-    <t>拖尾效果设计和加速拖尾效果设计</t>
+    <t>boss加速球效果设计-球的右上角倒计时</t>
+  </si>
+  <si>
+    <t>制作BOSS技能5</t>
+  </si>
+  <si>
+    <t>增加非boss区域布局类型</t>
+  </si>
+  <si>
+    <t>球→关卡过渡的动画效果</t>
+  </si>
+  <si>
+    <t>关卡过渡的界面出现效果</t>
+  </si>
+  <si>
+    <t>关卡过渡的界面到商店的效果</t>
+  </si>
+  <si>
+    <t>砖块更新图片的错误修改-改成优先预加载直接赋值</t>
+  </si>
+  <si>
+    <t>砖块受击表现</t>
+  </si>
+  <si>
+    <t>砖块boss受击表现</t>
+  </si>
+  <si>
+    <t>砖块消失效果</t>
+  </si>
+  <si>
+    <t>砖块boss消失效果</t>
+  </si>
+  <si>
+    <t>商店折扣功能</t>
+  </si>
+  <si>
+    <t>增加boss辅助布局类型</t>
   </si>
   <si>
     <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
@@ -214,16 +250,13 @@
     <t>砖块生成改为用nodepool对象池生成</t>
   </si>
   <si>
-    <t>补充小boss技能</t>
-  </si>
-  <si>
-    <t>补充大boss技能</t>
+    <t>补充boss技能</t>
   </si>
   <si>
     <t>开始游戏UI设计·真</t>
   </si>
   <si>
-    <t>球碰到墙壁播换表情动画</t>
+    <t>球碰到墙壁或者砖块---反馈效果：扩散音波</t>
   </si>
   <si>
     <t>砖块死亡加分效果UI</t>
@@ -241,15 +274,6 @@
     <t>上调托盘的位置</t>
   </si>
   <si>
-    <t>球→关卡过渡的动画效果</t>
-  </si>
-  <si>
-    <t>关卡过渡→商店→下一关的动画效果</t>
-  </si>
-  <si>
-    <t>砖块消失效果</t>
-  </si>
-  <si>
     <t>板子弹的时候加动画效果</t>
   </si>
   <si>
@@ -259,19 +283,49 @@
     <t>随机奖励块：降落伞效果，匀速下降</t>
   </si>
   <si>
-    <t>商店折扣</t>
-  </si>
-  <si>
-    <t>增加boss辅助布局类型</t>
-  </si>
-  <si>
-    <t>增加非boss区域布局类型</t>
-  </si>
-  <si>
     <t>关卡完成UI迭代设计</t>
   </si>
   <si>
-    <t>未完成的道具转化为奖励（时间）</t>
+    <t>未完成的道具转化为奖励（金币和时间）</t>
+  </si>
+  <si>
+    <t>拾取道具效果</t>
+  </si>
+  <si>
+    <t>新增道具-无敌加速</t>
+  </si>
+  <si>
+    <t>增加一个形状的砖块</t>
+  </si>
+  <si>
+    <t>初始加载的界面清理</t>
+  </si>
+  <si>
+    <t>关卡过渡界面优化</t>
+  </si>
+  <si>
+    <t>boss技能-前锋强化，如果没有的话换成增加可移动砖块</t>
+  </si>
+  <si>
+    <t>打包--缩减资源</t>
+  </si>
+  <si>
+    <t>慢速导致的发球时声音爆炸的bug</t>
+  </si>
+  <si>
+    <t>金币利息功能++</t>
+  </si>
+  <si>
+    <t>连续接团子+分系统</t>
+  </si>
+  <si>
+    <t>连打规则梳理，只有主球掉落会掉连击，连击+分系统</t>
+  </si>
+  <si>
+    <t>分包处理***试验成功，但场景预加载时的图片资源优先于子包，所以需要子包优于子场景加载才生效，暂时不用</t>
+  </si>
+  <si>
+    <t>名称+图标+描述</t>
   </si>
   <si>
     <t>排行榜UI设计·真</t>
@@ -335,8 +389,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -368,15 +422,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,13 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -412,16 +461,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,25 +499,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +528,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -518,37 +572,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,139 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,9 +762,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,17 +810,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,34 +837,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,10 +1360,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1785,224 +1839,314 @@
         <v>53</v>
       </c>
     </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>54</v>
+      <c r="C49" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>55</v>
+      <c r="C50" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" t="s">
-        <v>56</v>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" t="s">
-        <v>57</v>
+      <c r="C52" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>58</v>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>59</v>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" t="s">
-        <v>60</v>
+      <c r="C61" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" t="s">
-        <v>61</v>
+      <c r="C62" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>62</v>
+      <c r="C63" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>64</v>
+      <c r="C66" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2031,23 +2175,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -387,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -422,9 +422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,43 +432,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +461,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -506,8 +483,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,11 +522,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,13 +578,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,13 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,36 +728,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -656,91 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,17 +757,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,22 +779,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,7 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,6 +817,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -863,145 +863,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,8 +1362,8 @@
   <sheetPr/>
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1934,8 +1934,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" s="3" t="s">
         <v>73</v>
       </c>
     </row>

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
   <si>
     <t>优先级</t>
   </si>
@@ -241,6 +241,9 @@
     <t>商店折扣功能</t>
   </si>
   <si>
+    <t>砖块图片改成灰度图，通过控制颜色控制强度</t>
+  </si>
+  <si>
     <t>增加boss辅助布局类型</t>
   </si>
   <si>
@@ -322,6 +325,21 @@
     <t>连打规则梳理，只有主球掉落会掉连击，连击+分系统</t>
   </si>
   <si>
+    <t>底部上调</t>
+  </si>
+  <si>
+    <t>加点rogue继承效果：接特殊豆豆（三大属性豆豆 + 额外小球豆豆），会在下方显示出来，每当触发技能或者触发发球，则同时豆豆会支援发子弹</t>
+  </si>
+  <si>
+    <t>缩短BOSS释放技能准备时间，缩短加速时间</t>
+  </si>
+  <si>
+    <t>扩充boss技能效果 + 加厚砖块硬度和boss硬度上限</t>
+  </si>
+  <si>
+    <t>能量状态增加特效效果（加成状态的感觉）</t>
+  </si>
+  <si>
     <t>分包处理***试验成功，但场景预加载时的图片资源优先于子包，所以需要子包优于子场景加载才生效，暂时不用</t>
   </si>
   <si>
@@ -350,9 +368,6 @@
   </si>
   <si>
     <t>暂停界面加音效控制</t>
-  </si>
-  <si>
-    <t>背景音乐</t>
   </si>
   <si>
     <t>微信工具包体压缩等</t>
@@ -408,8 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +439,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +482,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -445,17 +498,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,13 +544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -491,59 +552,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -572,13 +587,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,163 +755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,35 +775,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +810,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,21 +849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -857,16 +863,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,133 +890,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,17 +1377,17 @@
   <sheetPr/>
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.13333333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="95.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.12962962962963" customWidth="1"/>
+    <col min="2" max="2" width="21.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="95.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="17.8916666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1939,214 +1954,239 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2204,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
@@ -2175,23 +2215,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2249,7 +2289,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2266,7 +2306,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/BrickDumpling规划/整体规划-策划and程序.xlsx
+++ b/BrickDumpling规划/整体规划-策划and程序.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>优先级</t>
   </si>
@@ -244,7 +244,10 @@
     <t>砖块图片改成灰度图，通过控制颜色控制强度</t>
   </si>
   <si>
-    <t>增加boss辅助布局类型</t>
+    <t>增加boss辅助布局类型小</t>
+  </si>
+  <si>
+    <t>增加boss辅助布局类型大</t>
   </si>
   <si>
     <t>开局小动画，团子和敌人敌对对称两张PK图，开始。</t>
@@ -328,7 +331,7 @@
     <t>底部上调</t>
   </si>
   <si>
-    <t>加点rogue继承效果：接特殊豆豆（三大属性豆豆 + 额外小球豆豆），会在下方显示出来，每当触发技能或者触发发球，则同时豆豆会支援发子弹</t>
+    <t>加点rogue继承效果：接特殊豆豆（三大属性豆豆 + 额外小球豆豆），会在下方显示出来，每当触发技能或者触发发球，则同时豆豆会支援发子弹（扩展为遗物，可对各种东西累计加成）</t>
   </si>
   <si>
     <t>缩短BOSS释放技能准备时间，缩短加速时间</t>
@@ -338,6 +341,9 @@
   </si>
   <si>
     <t>能量状态增加特效效果（加成状态的感觉）</t>
+  </si>
+  <si>
+    <t>超高强度处理</t>
   </si>
   <si>
     <t>分包处理***试验成功，但场景预加载时的图片资源优先于子包，所以需要子包优于子场景加载才生效，暂时不用</t>
@@ -402,8 +408,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -423,9 +429,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +466,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,6 +497,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,24 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,35 +551,20 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -587,55 +593,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,121 +725,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +778,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,26 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -878,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,133 +896,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1959,218 +1965,218 @@
         <v>74</v>
       </c>
     </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
-      <c r="C110" t="s">
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
-      <c r="C112" t="s">
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
-      <c r="C123" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="3:3">
-      <c r="C126" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2179,14 +2185,24 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
-      <c r="C130" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
-      <c r="C132" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2215,23 +2231,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
